--- a/Formato de Reglas Bonif.xlsx
+++ b/Formato de Reglas Bonif.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lavagna\moduloETE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1526FD5A-FD18-4F95-8057-01962E022E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF65F50-E272-497C-B997-A124738B2CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A6D33E-95C0-4B38-A97A-F9BA81506A89}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Hoja4!$A$1:$I$40</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Hoja4!$A:$I</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Codigo de Producto</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Factor</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>1,5,8</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ hh:mm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -130,13 +145,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -147,9 +159,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,8 +175,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="2" xr16:uid="{1574F80B-286E-44D3-B5A2-1807487B4A74}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11">
-    <queryTableFields count="9">
+  <queryTableRefresh nextId="12" unboundColumnsRight="1">
+    <queryTableFields count="10">
       <queryTableField id="2" name="Base_Product_Code" tableColumnId="2"/>
       <queryTableField id="3" name="Base_Product_Quantity" tableColumnId="3"/>
       <queryTableField id="4" name="Bonification_Product_Code" tableColumnId="4"/>
@@ -177,6 +186,7 @@
       <queryTableField id="6" name="Cost" tableColumnId="6"/>
       <queryTableField id="7" name="Start_Date" tableColumnId="7"/>
       <queryTableField id="8" name="End_Date" tableColumnId="8"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="index"/>
@@ -186,17 +196,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CD04270-84C0-4769-9A1E-537BBC453BFD}" name="Nuevo_documento_de_texto__2" displayName="Nuevo_documento_de_texto__2" ref="A1:I40" tableType="queryTable" totalsRowShown="0">
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{1B0FE54D-A7EE-4838-86A6-F9701D840962}" uniqueName="2" name="Codigo de Producto" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CAC070B4-1660-42B9-9001-07F2A6D240C2}" uniqueName="3" name="Cantidad de Producto" queryTableFieldId="3" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CD04270-84C0-4769-9A1E-537BBC453BFD}" name="Nuevo_documento_de_texto__2" displayName="Nuevo_documento_de_texto__2" ref="A1:J1048576" tableType="queryTable" totalsRowShown="0">
+  <tableColumns count="10">
+    <tableColumn id="2" xr3:uid="{1B0FE54D-A7EE-4838-86A6-F9701D840962}" uniqueName="2" name="Codigo de Producto" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CAC070B4-1660-42B9-9001-07F2A6D240C2}" uniqueName="3" name="Cantidad de Producto" queryTableFieldId="3" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{87AD2380-5FED-43BE-A0FE-C82016452319}" uniqueName="4" name="Codigo de Bonificacion" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{E9679726-07B4-41C3-B0B2-0F85871A4CC5}" uniqueName="9" name="Unidad" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{82F1D0B3-EE11-4C9D-840E-05B021B99F15}" uniqueName="1" name="Factor" queryTableFieldId="10" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{2E378912-5E72-41B9-B1F8-595F71722F44}" uniqueName="5" name="Cantidad de Bonificacion" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E9679726-07B4-41C3-B0B2-0F85871A4CC5}" uniqueName="9" name="Unidad" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{82F1D0B3-EE11-4C9D-840E-05B021B99F15}" uniqueName="1" name="Factor" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{2E378912-5E72-41B9-B1F8-595F71722F44}" uniqueName="5" name="Cantidad de Bonificacion" queryTableFieldId="5" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{AC5C8B40-B701-4138-80FD-F011E2EB4464}" uniqueName="6" name="Costo" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5A95A422-9886-40C4-9742-3DCDC5DD0FBC}" uniqueName="7" name="Fecha Inicio" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{159F825A-0D3C-4880-B175-EAF0E5A21AFF}" uniqueName="8" name="Fecha Fin" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{5A95A422-9886-40C4-9742-3DCDC5DD0FBC}" uniqueName="7" name="Fecha Inicio" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{159F825A-0D3C-4880-B175-EAF0E5A21AFF}" uniqueName="8" name="Fecha Fin" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{DB9CE349-597D-4929-A548-EC91F424CFAA}" uniqueName="10" name="Sucursal" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,26 +510,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F836981-BB29-4EEB-B954-8E4EE4E52FE4}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +558,11 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -575,8 +590,11 @@
       <c r="I2" s="2">
         <v>45535</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -604,191 +622,9 @@
       <c r="I3" s="2">
         <v>45535</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
